--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_20.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A4D24-20ED-564E-AF60-C0D3B7E81C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470029DA-6C18-9543-A719-26A722F459E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="-21100" windowWidth="29040" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="906">
   <si>
     <t>record_id</t>
   </si>
@@ -3026,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S80" zoomScale="142" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" topLeftCell="U54" zoomScale="142" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="AH88" sqref="AH88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9070,15 +9070,15 @@
         <v>0</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X82" t="s">
+        <v>222</v>
       </c>
       <c r="Y82" t="s">
         <v>46</v>
       </c>
       <c r="AG82">
-        <v>1</v>
-      </c>
-      <c r="AH82">
         <v>1</v>
       </c>
     </row>
@@ -9413,15 +9413,15 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X87" t="s">
+        <v>222</v>
       </c>
       <c r="Y87" t="s">
         <v>46</v>
       </c>
       <c r="AG87">
-        <v>1</v>
-      </c>
-      <c r="AH87">
         <v>1</v>
       </c>
     </row>
